--- a/va_facility_data_2025-02-20/Bangor VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bangor%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bangor VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bangor%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R84b03b13f3fd49399bec943ac5d654a6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfa1819f612714c3d887db192b72578ec"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcc28cebe12f14b28b0d34d312d4af98e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7fb8bc3089c54bb2afe4da74c4e4b88b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R59565e80c0bc4287b2da65214d10b200"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf5d52241e68f452289c2a01dbeead1c2"/>
   </x:sheets>
 </x:workbook>
 </file>
